--- a/data/trans_dic/P15A-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P15A-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P15A-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P15A-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,05%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>1,59; 3,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,66</t>
+          <t>1,55; 3,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,82</t>
+          <t>1,86; 4,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,54</t>
+          <t>1,46; 3,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,46</t>
+          <t>2,54; 4,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,77</t>
+          <t>2,44; 4,26</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,99</t>
+          <t>3,12; 5,86</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,21</t>
+          <t>4,07; 6,37</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,41</t>
+          <t>2,39; 3,82</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,07</t>
+          <t>2,26; 3,67</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,7</t>
+          <t>2,83; 4,62</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,91</t>
+          <t>3,28; 4,96</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,18%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,35</t>
+          <t>3,69; 5,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,07</t>
+          <t>2,42; 4,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>1,92; 3,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,52</t>
+          <t>1,7; 3,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,7</t>
+          <t>1,57; 3,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,74</t>
+          <t>1,61; 3,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,34</t>
+          <t>1,07; 2,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,3</t>
+          <t>1,47; 2,76</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,91</t>
+          <t>2,9; 4,13</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>2,24; 3,37</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>1,67; 2,58</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>1,69; 2,71</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,64%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,9</t>
+          <t>2,02; 5,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 7,32</t>
+          <t>1,41; 4,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 6,81</t>
+          <t>1,23; 3,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 5,61</t>
+          <t>0,72; 3,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>1,42; 4,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 7,32</t>
+          <t>1,63; 5,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>1,42; 3,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,54</t>
+          <t>1,02; 2,65</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,14</t>
+          <t>2,23; 4,59</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,75</t>
+          <t>1,96; 4,46</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,42</t>
+          <t>1,51; 3,44</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,2</t>
+          <t>1,08; 2,5</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,44%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,81</t>
+          <t>3,14; 4,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>2,33; 3,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,0</t>
+          <t>2,09; 3,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,91</t>
+          <t>1,73; 2,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,13</t>
+          <t>2,25; 3,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>2,22; 3,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,11</t>
+          <t>1,95; 3,04</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>2,09; 3,13</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>2,86; 3,72</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>2,45; 3,26</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>2,18; 2,96</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>2,05; 2,82</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P15A-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P15A-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>5,17%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>4,09%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,46; 3,75</t>
+          <t>1,49; 3,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,07; 6,37</t>
+          <t>4,16; 6,49</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,28; 4,96</t>
+          <t>3,32; 4,98</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>1,97%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,7; 3,27</t>
+          <t>1,37; 2,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,47; 2,76</t>
+          <t>1,26; 2,53</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,69; 2,71</t>
+          <t>1,47; 2,49</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>1,65%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,72; 3,09</t>
+          <t>0,77; 3,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,02; 2,65</t>
+          <t>1,02; 2,57</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,08; 2,5</t>
+          <t>1,07; 2,61</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>2,29%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,73; 2,91</t>
+          <t>1,47; 2,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,09; 3,13</t>
+          <t>1,93; 3,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,05; 2,82</t>
+          <t>1,86; 2,72</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P15A-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P15A-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,59; 3,5</t>
+          <t>1,66; 3,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,55; 3,78</t>
+          <t>1,58; 3,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,86; 4,13</t>
+          <t>1,8; 4,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,49; 3,76</t>
+          <t>1,64; 3,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,54; 4,66</t>
+          <t>2,53; 4,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,44; 4,26</t>
+          <t>2,42; 4,37</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,12; 5,86</t>
+          <t>3,06; 5,83</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,16; 6,49</t>
+          <t>4,13; 6,55</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,39; 3,82</t>
+          <t>2,36; 3,81</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,26; 3,67</t>
+          <t>2,25; 3,63</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,83; 4,62</t>
+          <t>2,72; 4,62</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,32; 4,98</t>
+          <t>3,31; 4,98</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,69; 5,74</t>
+          <t>3,57; 5,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,42; 4,02</t>
+          <t>2,43; 4,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,92; 3,34</t>
+          <t>1,95; 3,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,37; 2,87</t>
+          <t>1,35; 3,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,57; 3,11</t>
+          <t>1,54; 3,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,61; 3,06</t>
+          <t>1,6; 3,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,07; 2,29</t>
+          <t>1,04; 2,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,26; 2,53</t>
+          <t>1,23; 2,52</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,9; 4,13</t>
+          <t>2,86; 4,18</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,24; 3,37</t>
+          <t>2,19; 3,26</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,67; 2,58</t>
+          <t>1,66; 2,62</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,47; 2,49</t>
+          <t>1,48; 2,53</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,02; 5,42</t>
+          <t>2,09; 5,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,41; 4,9</t>
+          <t>1,44; 4,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,23; 3,84</t>
+          <t>1,11; 3,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,77; 3,27</t>
+          <t>0,74; 3,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,42; 4,77</t>
+          <t>1,34; 4,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,63; 5,58</t>
+          <t>1,84; 6,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,42; 3,95</t>
+          <t>1,33; 4,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,02; 2,57</t>
+          <t>0,97; 2,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,23; 4,59</t>
+          <t>2,18; 4,59</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,96; 4,46</t>
+          <t>1,97; 4,49</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,51; 3,44</t>
+          <t>1,57; 3,53</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,07; 2,61</t>
+          <t>1,07; 2,55</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,14; 4,49</t>
+          <t>3,12; 4,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,33; 3,48</t>
+          <t>2,32; 3,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,09; 3,16</t>
+          <t>2,08; 3,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,47; 2,72</t>
+          <t>1,52; 2,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,25; 3,37</t>
+          <t>2,23; 3,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,22; 3,44</t>
+          <t>2,23; 3,34</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,95; 3,04</t>
+          <t>1,94; 3,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,93; 3,03</t>
+          <t>1,99; 3,09</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,86; 3,72</t>
+          <t>2,85; 3,77</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,45; 3,26</t>
+          <t>2,44; 3,25</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,18; 2,96</t>
+          <t>2,16; 2,98</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,86; 2,72</t>
+          <t>1,92; 2,71</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>25174</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>24149</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>21109</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>12856</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>45528</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>43571</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>42321</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>39049</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>70702</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>67721</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>63430</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>51905</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>17176; 37117</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>15411; 38484</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>13577; 30349</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>8457; 19436</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>33328; 59703</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>32345; 58419</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>30438; 58032</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>31234; 49502</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>55385; 89332</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>51931; 83826</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>47617; 80892</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>42094; 63302</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>78503</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>61113</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>53755</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>48276</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>35042</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>39821</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>31513</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>40950</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>113546</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>100934</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>85269</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>89226</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>60459; 95378</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>47665; 80009</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>40429; 70401</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>31006; 68982</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>24505; 48052</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>28213; 53726</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>20764; 44262</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>27608; 56364</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>93964; 137299</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>81652; 121390</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>67662; 106594</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>67233; 114396</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>19400</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>13053</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>12292</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>10613</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>13236</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>14939</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>13675</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>10898</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>32636</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>27992</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>25967</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>21511</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>11551; 30549</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6945; 23203</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6057; 21388</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4808; 21982</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>6366; 22156</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>8436; 27535</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>7329; 22278</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6434; 16801</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>22442; 47136</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>18548; 42206</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>17178; 38647</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>13922; 33299</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>123077</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>98315</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>87156</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>71746</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>93806</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>98331</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>87510</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>90896</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>216883</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>196646</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>174666</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>162642</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>102111; 144855</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>79204; 122541</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>70392; 107003</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>52434; 91869</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>75288; 115059</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>79374; 118674</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>68628; 110214</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>72830; 112957</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>189848; 251213</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>169874; 226958</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>149330; 206168</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>136761; 192298</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>